--- a/nodes_source_analyses/energy/energy_power_hydro_river.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_hydro_river.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -362,9 +370,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Fixed operational and maintenance costs</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Technical</t>
@@ -737,18 +742,22 @@
   <si>
     <t>http://refman.et-model.com/publications/1926</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000000000000"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -922,11 +931,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1576,12 +1580,12 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1598,13 +1602,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1654,15 +1658,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1679,21 +1683,21 @@
     <xf numFmtId="1" fontId="20" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="26" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1716,7 +1720,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1758,38 +1762,38 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2046,80 +2050,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>101600</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3898900</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2315,7 +2254,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2754,43 +2693,43 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="29" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="21"/>
+    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="27" customFormat="1">
+    <row r="1" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="28"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>78</v>
@@ -2799,7 +2738,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
@@ -2808,29 +2747,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="88" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="89"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="90"/>
       <c r="C10" s="91"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="90" t="s">
         <v>81</v>
@@ -2839,33 +2778,33 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="90"/>
       <c r="C12" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="90"/>
       <c r="C13" s="93" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="90"/>
       <c r="C14" s="91" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="90"/>
       <c r="C15" s="91"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="90" t="s">
         <v>86</v>
@@ -2874,49 +2813,49 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="90"/>
       <c r="C17" s="95" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="90"/>
       <c r="C18" s="96" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="90"/>
       <c r="C19" s="97" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="98"/>
       <c r="C20" s="99" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="98"/>
       <c r="C21" s="100" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="98"/>
       <c r="C22" s="101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="98"/>
       <c r="C23" s="102" t="s">
         <v>94</v>
@@ -2925,49 +2864,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K42"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="36" customWidth="1"/>
-    <col min="2" max="2" width="3.25" style="36" customWidth="1"/>
-    <col min="3" max="3" width="46.875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="36" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="36" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="36" customWidth="1"/>
-    <col min="7" max="7" width="43.25" style="36" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="36" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="36" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="36" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="36"/>
+    <col min="1" max="1" width="3.42578125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="43.28515625" style="36" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="36" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="36" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="157" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="C2" s="158"/>
       <c r="D2" s="158"/>
@@ -2975,7 +2909,7 @@
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="160"/>
       <c r="C3" s="161"/>
       <c r="D3" s="161"/>
@@ -2983,7 +2917,7 @@
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="160"/>
       <c r="C4" s="161"/>
       <c r="D4" s="161"/>
@@ -2991,7 +2925,7 @@
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="163"/>
       <c r="C5" s="164"/>
       <c r="D5" s="164"/>
@@ -2999,10 +2933,10 @@
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="37"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="38"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -3013,7 +2947,7 @@
       <c r="I7" s="19"/>
       <c r="J7" s="39"/>
     </row>
-    <row r="8" spans="2:11" s="24" customFormat="1">
+    <row r="8" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="114"/>
       <c r="C8" s="16" t="s">
         <v>34</v>
@@ -3034,7 +2968,7 @@
       </c>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="2:11" s="24" customFormat="1">
+    <row r="9" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="23"/>
       <c r="C9" s="14"/>
       <c r="D9" s="32"/>
@@ -3045,10 +2979,10 @@
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="2:11" s="24" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:11" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="23"/>
       <c r="C10" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="14"/>
@@ -3058,7 +2992,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:11" s="24" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="2:11" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="23"/>
       <c r="C11" s="40" t="s">
         <v>35</v>
@@ -3077,7 +3011,7 @@
       </c>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1">
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="41"/>
       <c r="C12" s="40" t="s">
         <v>37</v>
@@ -3097,7 +3031,7 @@
       <c r="J12" s="108"/>
       <c r="K12" s="37"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="41"/>
       <c r="C13" s="40" t="s">
         <v>38</v>
@@ -3117,7 +3051,7 @@
       <c r="J13" s="108"/>
       <c r="K13" s="37"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="41"/>
       <c r="C14" s="40" t="s">
         <v>40</v>
@@ -3137,7 +3071,7 @@
       <c r="J14" s="108"/>
       <c r="K14" s="37"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="41"/>
       <c r="C15" s="40" t="s">
         <v>9</v>
@@ -3157,7 +3091,7 @@
       <c r="J15" s="108"/>
       <c r="K15" s="37"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="41"/>
       <c r="C16" s="40" t="s">
         <v>43</v>
@@ -3177,7 +3111,7 @@
       <c r="J16" s="108"/>
       <c r="K16" s="37"/>
     </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="41"/>
       <c r="C17" s="40" t="s">
         <v>44</v>
@@ -3197,13 +3131,13 @@
       <c r="J17" s="108"/>
       <c r="K17" s="37"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="41"/>
       <c r="C18" s="40" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E18" s="42">
         <f>'Research data'!H6</f>
@@ -3219,13 +3153,13 @@
       </c>
       <c r="J18" s="108"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="41"/>
       <c r="C19" s="40" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" s="42">
         <v>0</v>
@@ -3240,7 +3174,7 @@
       </c>
       <c r="J19" s="108"/>
     </row>
-    <row r="20" spans="2:11" ht="16" thickBot="1">
+    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="41"/>
       <c r="C20" s="40" t="s">
         <v>47</v>
@@ -3261,7 +3195,7 @@
       </c>
       <c r="J20" s="108"/>
     </row>
-    <row r="21" spans="2:11" ht="16" thickBot="1">
+    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="41"/>
       <c r="C21" s="40" t="s">
         <v>60</v>
@@ -3282,7 +3216,7 @@
       </c>
       <c r="J21" s="108"/>
     </row>
-    <row r="22" spans="2:11" ht="16" thickBot="1">
+    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="41"/>
       <c r="C22" s="40" t="s">
         <v>48</v>
@@ -3303,7 +3237,7 @@
       </c>
       <c r="J22" s="108"/>
     </row>
-    <row r="23" spans="2:11" ht="16" thickBot="1">
+    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="41"/>
       <c r="C23" s="40" t="s">
         <v>49</v>
@@ -3324,7 +3258,7 @@
       </c>
       <c r="J23" s="108"/>
     </row>
-    <row r="24" spans="2:11" ht="16" thickBot="1">
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="41"/>
       <c r="C24" s="40" t="s">
         <v>50</v>
@@ -3345,7 +3279,7 @@
       </c>
       <c r="J24" s="108"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="41"/>
       <c r="C25" s="37"/>
       <c r="D25" s="111"/>
@@ -3356,10 +3290,10 @@
       <c r="I25" s="37"/>
       <c r="J25" s="108"/>
     </row>
-    <row r="26" spans="2:11" ht="16" thickBot="1">
+    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="41"/>
       <c r="C26" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D26" s="111"/>
       <c r="E26" s="112"/>
@@ -3369,7 +3303,7 @@
       <c r="I26" s="37"/>
       <c r="J26" s="108"/>
     </row>
-    <row r="27" spans="2:11" ht="16" thickBot="1">
+    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="41"/>
       <c r="C27" s="40" t="s">
         <v>51</v>
@@ -3391,7 +3325,7 @@
       </c>
       <c r="J27" s="108"/>
     </row>
-    <row r="28" spans="2:11" ht="16" thickBot="1">
+    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="41"/>
       <c r="C28" s="40" t="s">
         <v>52</v>
@@ -3412,7 +3346,7 @@
       </c>
       <c r="J28" s="108"/>
     </row>
-    <row r="29" spans="2:11" ht="16" thickBot="1">
+    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="41"/>
       <c r="C29" s="40" t="s">
         <v>11</v>
@@ -3433,7 +3367,7 @@
       </c>
       <c r="J29" s="108"/>
     </row>
-    <row r="30" spans="2:11" ht="16" thickBot="1">
+    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="41"/>
       <c r="C30" s="40" t="s">
         <v>53</v>
@@ -3454,7 +3388,7 @@
       </c>
       <c r="J30" s="108"/>
     </row>
-    <row r="31" spans="2:11" ht="16" thickBot="1">
+    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="41"/>
       <c r="C31" s="40" t="s">
         <v>54</v>
@@ -3476,7 +3410,7 @@
       </c>
       <c r="J31" s="108"/>
     </row>
-    <row r="32" spans="2:11" ht="16" thickBot="1">
+    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="41"/>
       <c r="C32" s="40" t="s">
         <v>55</v>
@@ -3497,7 +3431,7 @@
       </c>
       <c r="J32" s="108"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="41"/>
       <c r="C33" s="40" t="s">
         <v>56</v>
@@ -3518,7 +3452,7 @@
       </c>
       <c r="J33" s="108"/>
     </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="41"/>
       <c r="C34" s="40" t="s">
         <v>59</v>
@@ -3539,7 +3473,7 @@
       </c>
       <c r="J34" s="108"/>
     </row>
-    <row r="35" spans="2:10" ht="16" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="41"/>
       <c r="C35" s="40" t="s">
         <v>42</v>
@@ -3558,7 +3492,7 @@
       </c>
       <c r="J35" s="108"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="41"/>
       <c r="C36" s="37"/>
       <c r="D36" s="111"/>
@@ -3569,7 +3503,7 @@
       <c r="I36" s="37"/>
       <c r="J36" s="108"/>
     </row>
-    <row r="37" spans="2:10" ht="16" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="41"/>
       <c r="C37" s="14" t="s">
         <v>7</v>
@@ -3582,7 +3516,7 @@
       <c r="I37" s="37"/>
       <c r="J37" s="108"/>
     </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="41"/>
       <c r="C38" s="40" t="s">
         <v>41</v>
@@ -3603,7 +3537,7 @@
       </c>
       <c r="J38" s="108"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="41"/>
       <c r="C39" s="40" t="s">
         <v>57</v>
@@ -3621,11 +3555,11 @@
       </c>
       <c r="H39" s="40"/>
       <c r="I39" s="147" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J39" s="108"/>
     </row>
-    <row r="40" spans="2:10" ht="16" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="41"/>
       <c r="C40" s="40" t="s">
         <v>58</v>
@@ -3643,11 +3577,11 @@
       </c>
       <c r="H40" s="40"/>
       <c r="I40" s="147" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J40" s="108"/>
     </row>
-    <row r="41" spans="2:10" ht="16" thickBot="1">
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="41"/>
       <c r="C41" s="40" t="s">
         <v>39</v>
@@ -3666,7 +3600,7 @@
       </c>
       <c r="J41" s="108"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" thickBot="1">
+    <row r="42" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="43"/>
       <c r="C42" s="44"/>
       <c r="D42" s="44"/>
@@ -3683,43 +3617,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>101600</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>114300</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3898900</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>114300</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3734,29 +3631,29 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="49" customWidth="1"/>
-    <col min="2" max="2" width="2.5" style="49" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="49" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="49" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="49" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="49" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="49" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="49" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="49" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="49" customWidth="1"/>
     <col min="7" max="7" width="3" style="49" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="49" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="49" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="49" customWidth="1"/>
-    <col min="11" max="11" width="2.125" style="49" customWidth="1"/>
-    <col min="12" max="12" width="8.75" style="49" customWidth="1"/>
-    <col min="13" max="13" width="2.5" style="49" customWidth="1"/>
-    <col min="14" max="14" width="9.375" style="49" customWidth="1"/>
-    <col min="15" max="15" width="1.875" style="49" customWidth="1"/>
-    <col min="16" max="16" width="55.125" style="49" customWidth="1"/>
-    <col min="17" max="16384" width="10.625" style="49"/>
+    <col min="8" max="8" width="9.5703125" style="49" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="49" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="49" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" style="49" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="49" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" style="49" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="49" customWidth="1"/>
+    <col min="15" max="15" width="1.85546875" style="49" customWidth="1"/>
+    <col min="16" max="16" width="55.140625" style="49" customWidth="1"/>
+    <col min="17" max="16384" width="10.7109375" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="16" thickBot="1"/>
-    <row r="2" spans="2:16">
+    <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -3773,7 +3670,7 @@
       <c r="O2" s="51"/>
       <c r="P2" s="51"/>
     </row>
-    <row r="3" spans="2:16" s="24" customFormat="1">
+    <row r="3" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="23"/>
       <c r="C3" s="103" t="s">
         <v>95</v>
@@ -3793,7 +3690,7 @@
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="103" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M3" s="103"/>
       <c r="N3" s="103" t="s">
@@ -3801,10 +3698,10 @@
       </c>
       <c r="O3" s="103"/>
       <c r="P3" s="103" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="52"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -3821,10 +3718,10 @@
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="2:16" ht="16" thickBot="1">
+    <row r="5" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52"/>
       <c r="C5" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
@@ -3840,7 +3737,7 @@
       <c r="O5" s="14"/>
       <c r="P5" s="56"/>
     </row>
-    <row r="6" spans="2:16" ht="17" thickBot="1">
+    <row r="6" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52"/>
       <c r="C6" s="57" t="s">
         <v>30</v>
@@ -3860,7 +3757,7 @@
       <c r="L6" s="48"/>
       <c r="P6" s="71"/>
     </row>
-    <row r="7" spans="2:16" ht="18" customHeight="1">
+    <row r="7" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="52"/>
       <c r="C7" s="64"/>
       <c r="D7" s="64"/>
@@ -3874,7 +3771,7 @@
       <c r="L7" s="128"/>
       <c r="P7" s="61"/>
     </row>
-    <row r="8" spans="2:16" ht="18" customHeight="1" thickBot="1">
+    <row r="8" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52"/>
       <c r="C8" s="33" t="s">
         <v>7</v>
@@ -3890,10 +3787,10 @@
       <c r="L8" s="53"/>
       <c r="P8" s="71"/>
     </row>
-    <row r="9" spans="2:16" s="121" customFormat="1" ht="18" customHeight="1" thickBot="1">
+    <row r="9" spans="2:16" s="121" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="117"/>
       <c r="C9" s="118" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="119"/>
       <c r="E9" s="119"/>
@@ -3915,7 +3812,7 @@
       <c r="N9" s="116"/>
       <c r="P9" s="122"/>
     </row>
-    <row r="10" spans="2:16" ht="16" thickBot="1">
+    <row r="10" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52"/>
       <c r="C10" s="65" t="s">
         <v>5</v>
@@ -3940,7 +3837,7 @@
       </c>
       <c r="P10" s="71"/>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="52"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
@@ -3953,7 +3850,7 @@
       <c r="L11" s="53"/>
       <c r="P11" s="137"/>
     </row>
-    <row r="12" spans="2:16" ht="16" thickBot="1">
+    <row r="12" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52"/>
       <c r="C12" s="13" t="s">
         <v>96</v>
@@ -3966,13 +3863,13 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="P12" s="146" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" s="134" customFormat="1" ht="16" thickBot="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" s="134" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="129"/>
       <c r="C13" s="118" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" s="130"/>
       <c r="E13" s="130"/>
@@ -3991,18 +3888,18 @@
       <c r="N13" s="133"/>
       <c r="O13" s="133"/>
       <c r="P13" s="146" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" ht="16" thickBot="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52"/>
       <c r="C14" s="135" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" s="67"/>
       <c r="E14" s="67"/>
       <c r="F14" s="126" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G14" s="60"/>
       <c r="H14" s="63">
@@ -4025,10 +3922,10 @@
       </c>
       <c r="O14" s="62"/>
       <c r="P14" s="146" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" ht="16" thickBot="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52"/>
       <c r="C15" s="118" t="s">
         <v>98</v>
@@ -4036,7 +3933,7 @@
       <c r="D15" s="68"/>
       <c r="E15" s="68"/>
       <c r="F15" s="126" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G15" s="106"/>
       <c r="H15" s="63">
@@ -4050,10 +3947,10 @@
       <c r="N15" s="62"/>
       <c r="O15" s="62"/>
       <c r="P15" s="146" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" ht="16" thickBot="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="52"/>
       <c r="C16" s="118" t="s">
         <v>98</v>
@@ -4061,7 +3958,7 @@
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
       <c r="F16" s="126" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G16" s="106"/>
       <c r="H16" s="63">
@@ -4084,10 +3981,10 @@
       </c>
       <c r="O16" s="62"/>
       <c r="P16" s="137" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" ht="16" thickBot="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="52"/>
       <c r="C17" s="118" t="s">
         <v>68</v>
@@ -4108,10 +4005,10 @@
       <c r="N17" s="62"/>
       <c r="O17" s="62"/>
       <c r="P17" s="141" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="52"/>
       <c r="C18" s="118"/>
       <c r="D18" s="68"/>
@@ -4126,10 +4023,10 @@
       <c r="N18" s="62"/>
       <c r="O18" s="62"/>
       <c r="P18" s="146" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="52"/>
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
@@ -4140,17 +4037,12 @@
       <c r="I19" s="53"/>
       <c r="J19" s="53"/>
       <c r="P19" s="146" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4165,22 +4057,22 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="74" customWidth="1"/>
-    <col min="2" max="2" width="2.5" style="74" customWidth="1"/>
-    <col min="3" max="3" width="26.75" style="74" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="74" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="74" customWidth="1"/>
-    <col min="6" max="7" width="13.25" style="74" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="75" customWidth="1"/>
-    <col min="9" max="9" width="33.75" style="75" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="74" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" style="74" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="74" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="74" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="74" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" style="74" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="75" customWidth="1"/>
+    <col min="9" max="9" width="33.7109375" style="75" customWidth="1"/>
     <col min="10" max="10" width="71" style="74" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="74"/>
+    <col min="11" max="16384" width="33.140625" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="76"/>
       <c r="C2" s="77"/>
       <c r="D2" s="77"/>
@@ -4191,7 +4083,7 @@
       <c r="I2" s="78"/>
       <c r="J2" s="77"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="79"/>
       <c r="C3" s="14" t="s">
         <v>21</v>
@@ -4204,7 +4096,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="73"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="79"/>
       <c r="C4" s="73"/>
       <c r="D4" s="73"/>
@@ -4215,7 +4107,7 @@
       <c r="I4" s="80"/>
       <c r="J4" s="73"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="81"/>
       <c r="C5" s="16" t="s">
         <v>31</v>
@@ -4230,19 +4122,19 @@
         <v>32</v>
       </c>
       <c r="G5" s="145" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>33</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="79"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -4253,7 +4145,7 @@
       <c r="I6" s="17"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="79"/>
       <c r="C7" s="83"/>
       <c r="D7" s="73" t="s">
@@ -4270,13 +4162,13 @@
       </c>
       <c r="H7" s="73"/>
       <c r="I7" s="156" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J7" s="155" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="79"/>
       <c r="C8" s="138" t="s">
         <v>8</v>
@@ -4288,7 +4180,7 @@
       <c r="H8" s="73"/>
       <c r="I8" s="73"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="79"/>
       <c r="C9" s="138" t="s">
         <v>72</v>
@@ -4301,7 +4193,7 @@
       <c r="I9" s="73"/>
       <c r="J9" s="73"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="79"/>
       <c r="C10" s="124" t="s">
         <v>5</v>
@@ -4314,7 +4206,7 @@
       <c r="I10" s="73"/>
       <c r="J10" s="73"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="79"/>
       <c r="C11" s="83"/>
       <c r="D11" s="73"/>
@@ -4325,7 +4217,7 @@
       <c r="I11" s="73"/>
       <c r="J11" s="73"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="79"/>
       <c r="C12" s="82"/>
       <c r="D12" s="139" t="s">
@@ -4342,13 +4234,13 @@
       </c>
       <c r="H12" s="73"/>
       <c r="I12" s="156" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J12" s="155" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="79"/>
       <c r="C13" s="82" t="s">
         <v>25</v>
@@ -4361,10 +4253,10 @@
       <c r="I13" s="73"/>
       <c r="J13" s="73"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="79"/>
       <c r="C14" s="82" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" s="73"/>
       <c r="E14" s="73"/>
@@ -4374,7 +4266,7 @@
       <c r="I14" s="73"/>
       <c r="J14" s="73"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="79"/>
       <c r="C15" s="83"/>
       <c r="D15" s="73"/>
@@ -4385,11 +4277,11 @@
       <c r="I15" s="73"/>
       <c r="J15" s="73"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="79"/>
       <c r="C16" s="83"/>
       <c r="D16" s="139" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E16" s="139" t="s">
         <v>22</v>
@@ -4404,7 +4296,7 @@
       <c r="I16" s="73"/>
       <c r="J16" s="85"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="79"/>
       <c r="C17" s="82" t="s">
         <v>8</v>
@@ -4415,13 +4307,13 @@
       <c r="G17" s="73"/>
       <c r="H17" s="73"/>
       <c r="I17" s="156" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J17" s="155" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="79"/>
       <c r="C18" s="82" t="s">
         <v>72</v>
@@ -4434,10 +4326,10 @@
       <c r="I18" s="73"/>
       <c r="J18" s="125"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="79"/>
       <c r="C19" s="82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" s="73"/>
       <c r="E19" s="73"/>
@@ -4450,11 +4342,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4466,22 +4353,22 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="142" customWidth="1"/>
-    <col min="2" max="2" width="3.875" style="142" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="142" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="142"/>
+    <col min="1" max="1" width="4.85546875" style="142" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" style="142" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="142" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="142"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="16" thickBot="1"/>
-    <row r="2" spans="2:13" s="24" customFormat="1">
+    <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="153"/>
       <c r="C2" s="154" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" s="154" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" s="154"/>
       <c r="F2" s="154"/>
@@ -4493,7 +4380,7 @@
       <c r="L2" s="154"/>
       <c r="M2" s="154"/>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="149"/>
       <c r="C3" s="143"/>
       <c r="D3" s="143"/>
@@ -4507,7 +4394,7 @@
       <c r="L3" s="143"/>
       <c r="M3" s="143"/>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="149"/>
       <c r="C4" s="144" t="s">
         <v>71</v>
@@ -4523,10 +4410,10 @@
       <c r="L4" s="143"/>
       <c r="M4" s="143"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="149"/>
       <c r="C5" s="144" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="143"/>
       <c r="E5" s="143"/>
@@ -4539,7 +4426,7 @@
       <c r="L5" s="143"/>
       <c r="M5" s="143"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="149"/>
       <c r="C6" s="143"/>
       <c r="D6" s="143"/>
@@ -4553,10 +4440,10 @@
       <c r="L6" s="143"/>
       <c r="M6" s="143"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="149"/>
       <c r="C7" s="144" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" s="143"/>
       <c r="E7" s="143"/>
@@ -4569,16 +4456,16 @@
       <c r="L7" s="143"/>
       <c r="M7" s="143"/>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="149"/>
       <c r="C8" s="144" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="144" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E8" s="144" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F8" s="143"/>
       <c r="G8" s="143"/>
@@ -4589,16 +4476,16 @@
       <c r="L8" s="143"/>
       <c r="M8" s="143"/>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="149"/>
       <c r="C9" s="144" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="143">
         <v>3700</v>
       </c>
       <c r="E9" s="144" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F9" s="143"/>
       <c r="G9" s="143"/>
@@ -4609,14 +4496,14 @@
       <c r="L9" s="143"/>
       <c r="M9" s="143"/>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="149"/>
       <c r="C10" s="143"/>
       <c r="D10" s="143">
         <v>2688</v>
       </c>
       <c r="E10" s="144" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F10" s="143"/>
       <c r="G10" s="143"/>
@@ -4627,7 +4514,7 @@
       <c r="L10" s="143"/>
       <c r="M10" s="143"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="149"/>
       <c r="C11" s="143"/>
       <c r="D11" s="143"/>
@@ -4641,7 +4528,7 @@
       <c r="L11" s="143"/>
       <c r="M11" s="143"/>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="149"/>
       <c r="C12" s="143"/>
       <c r="D12" s="143"/>
@@ -4655,7 +4542,7 @@
       <c r="L12" s="143"/>
       <c r="M12" s="143"/>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="149"/>
       <c r="C13" s="143"/>
       <c r="D13" s="143"/>
@@ -4669,7 +4556,7 @@
       <c r="L13" s="143"/>
       <c r="M13" s="143"/>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="149"/>
       <c r="C14" s="143"/>
       <c r="D14" s="143"/>
@@ -4683,7 +4570,7 @@
       <c r="L14" s="143"/>
       <c r="M14" s="143"/>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="149"/>
       <c r="C15" s="143"/>
       <c r="D15" s="143"/>
@@ -4697,7 +4584,7 @@
       <c r="L15" s="143"/>
       <c r="M15" s="143"/>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="149"/>
       <c r="C16" s="143"/>
       <c r="D16" s="143"/>
@@ -4711,7 +4598,7 @@
       <c r="L16" s="143"/>
       <c r="M16" s="143"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="149"/>
       <c r="C17" s="143"/>
       <c r="D17" s="143"/>
@@ -4725,7 +4612,7 @@
       <c r="L17" s="143"/>
       <c r="M17" s="143"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="149"/>
       <c r="C18" s="144"/>
       <c r="D18" s="143"/>
@@ -4739,7 +4626,7 @@
       <c r="L18" s="143"/>
       <c r="M18" s="143"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="149"/>
       <c r="C19" s="143"/>
       <c r="D19" s="143"/>
@@ -4753,7 +4640,7 @@
       <c r="L19" s="143"/>
       <c r="M19" s="143"/>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="149"/>
       <c r="C20" s="143"/>
       <c r="D20" s="143"/>
@@ -4767,7 +4654,7 @@
       <c r="L20" s="143"/>
       <c r="M20" s="143"/>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="149"/>
       <c r="C21" s="143"/>
       <c r="D21" s="143"/>
@@ -4781,7 +4668,7 @@
       <c r="L21" s="143"/>
       <c r="M21" s="143"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="149"/>
       <c r="C22" s="143"/>
       <c r="D22" s="143"/>
@@ -4795,7 +4682,7 @@
       <c r="L22" s="143"/>
       <c r="M22" s="143"/>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="149"/>
       <c r="C23" s="143"/>
       <c r="D23" s="143"/>
@@ -4809,7 +4696,7 @@
       <c r="L23" s="143"/>
       <c r="M23" s="143"/>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="149"/>
       <c r="C24" s="143"/>
       <c r="D24" s="143"/>
@@ -4823,7 +4710,7 @@
       <c r="L24" s="143"/>
       <c r="M24" s="143"/>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="149"/>
       <c r="C25" s="143"/>
       <c r="D25" s="143"/>
@@ -4837,7 +4724,7 @@
       <c r="L25" s="143"/>
       <c r="M25" s="143"/>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="149"/>
       <c r="C26" s="143"/>
       <c r="D26" s="143"/>
@@ -4851,7 +4738,7 @@
       <c r="L26" s="143"/>
       <c r="M26" s="143"/>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="149"/>
       <c r="C27" s="144"/>
       <c r="D27" s="143"/>
@@ -4865,7 +4752,7 @@
       <c r="L27" s="143"/>
       <c r="M27" s="143"/>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="149"/>
       <c r="C28" s="143"/>
       <c r="D28" s="143"/>
@@ -4879,7 +4766,7 @@
       <c r="L28" s="143"/>
       <c r="M28" s="143"/>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="149"/>
       <c r="C29" s="143"/>
       <c r="D29" s="143"/>
@@ -4893,7 +4780,7 @@
       <c r="L29" s="143"/>
       <c r="M29" s="143"/>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="149"/>
       <c r="C30" s="143"/>
       <c r="D30" s="143"/>
@@ -4907,7 +4794,7 @@
       <c r="L30" s="143"/>
       <c r="M30" s="143"/>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="149"/>
       <c r="C31" s="143"/>
       <c r="D31" s="143"/>
@@ -4921,7 +4808,7 @@
       <c r="L31" s="143"/>
       <c r="M31" s="143"/>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="149"/>
       <c r="C32" s="143"/>
       <c r="D32" s="143"/>
@@ -4935,7 +4822,7 @@
       <c r="L32" s="143"/>
       <c r="M32" s="143"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="149"/>
       <c r="C33" s="143"/>
       <c r="D33" s="143"/>
@@ -4949,7 +4836,7 @@
       <c r="L33" s="143"/>
       <c r="M33" s="143"/>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="149"/>
       <c r="C34" s="143"/>
       <c r="D34" s="143"/>
@@ -4963,7 +4850,7 @@
       <c r="L34" s="143"/>
       <c r="M34" s="143"/>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="149"/>
       <c r="C35" s="143"/>
       <c r="D35" s="143"/>
@@ -4977,7 +4864,7 @@
       <c r="L35" s="143"/>
       <c r="M35" s="143"/>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="149"/>
       <c r="C36" s="143"/>
       <c r="D36" s="143"/>
@@ -4991,7 +4878,7 @@
       <c r="L36" s="143"/>
       <c r="M36" s="143"/>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="149"/>
       <c r="C37" s="143"/>
       <c r="D37" s="143"/>
@@ -5005,7 +4892,7 @@
       <c r="L37" s="143"/>
       <c r="M37" s="143"/>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="149"/>
       <c r="C38" s="143"/>
       <c r="D38" s="143"/>
@@ -5019,7 +4906,7 @@
       <c r="L38" s="143"/>
       <c r="M38" s="143"/>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="149"/>
       <c r="C39" s="143"/>
       <c r="D39" s="143"/>
@@ -5033,7 +4920,7 @@
       <c r="L39" s="143"/>
       <c r="M39" s="143"/>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="149"/>
       <c r="C40" s="143"/>
       <c r="D40" s="143"/>
@@ -5047,7 +4934,7 @@
       <c r="L40" s="143"/>
       <c r="M40" s="143"/>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="149"/>
       <c r="C41" s="143"/>
       <c r="D41" s="143"/>
@@ -5061,7 +4948,7 @@
       <c r="L41" s="143"/>
       <c r="M41" s="143"/>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="149"/>
       <c r="C42" s="143"/>
       <c r="D42" s="143"/>
@@ -5075,7 +4962,7 @@
       <c r="L42" s="143"/>
       <c r="M42" s="143"/>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="149"/>
       <c r="C43" s="143"/>
       <c r="D43" s="143"/>
@@ -5089,10 +4976,10 @@
       <c r="L43" s="143"/>
       <c r="M43" s="143"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="149"/>
       <c r="C44" s="144" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D44" s="150">
         <v>2.5000000000000001E-2</v>
@@ -5107,7 +4994,7 @@
       <c r="L44" s="143"/>
       <c r="M44" s="143"/>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="149"/>
       <c r="C45" s="143"/>
       <c r="D45" s="143"/>
@@ -5121,7 +5008,7 @@
       <c r="L45" s="143"/>
       <c r="M45" s="143"/>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="149"/>
       <c r="C46" s="143"/>
       <c r="D46" s="143"/>
@@ -5135,7 +5022,7 @@
       <c r="L46" s="143"/>
       <c r="M46" s="143"/>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="149"/>
       <c r="C47" s="143"/>
       <c r="D47" s="143"/>
@@ -5149,7 +5036,7 @@
       <c r="L47" s="143"/>
       <c r="M47" s="143"/>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" s="149"/>
       <c r="C48" s="144" t="s">
         <v>23</v>
@@ -5165,10 +5052,10 @@
       <c r="L48" s="143"/>
       <c r="M48" s="143"/>
     </row>
-    <row r="49" spans="2:13">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" s="149"/>
       <c r="C49" s="144" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D49" s="143"/>
       <c r="E49" s="143"/>
@@ -5181,7 +5068,7 @@
       <c r="L49" s="143"/>
       <c r="M49" s="143"/>
     </row>
-    <row r="50" spans="2:13">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B50" s="149"/>
       <c r="C50" s="143"/>
       <c r="D50" s="143"/>
@@ -5195,7 +5082,7 @@
       <c r="L50" s="143"/>
       <c r="M50" s="143"/>
     </row>
-    <row r="51" spans="2:13">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B51" s="149"/>
       <c r="C51" s="143"/>
       <c r="D51" s="143"/>
@@ -5209,7 +5096,7 @@
       <c r="L51" s="143"/>
       <c r="M51" s="143"/>
     </row>
-    <row r="52" spans="2:13">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B52" s="149"/>
       <c r="C52" s="143"/>
       <c r="D52" s="143"/>
@@ -5223,7 +5110,7 @@
       <c r="L52" s="143"/>
       <c r="M52" s="143"/>
     </row>
-    <row r="53" spans="2:13">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B53" s="149"/>
       <c r="C53" s="143"/>
       <c r="D53" s="143"/>
@@ -5237,7 +5124,7 @@
       <c r="L53" s="143"/>
       <c r="M53" s="143"/>
     </row>
-    <row r="54" spans="2:13">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B54" s="149"/>
       <c r="C54" s="143"/>
       <c r="D54" s="143"/>
@@ -5251,7 +5138,7 @@
       <c r="L54" s="143"/>
       <c r="M54" s="143"/>
     </row>
-    <row r="55" spans="2:13">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B55" s="149"/>
       <c r="C55" s="143"/>
       <c r="D55" s="143"/>
@@ -5265,7 +5152,7 @@
       <c r="L55" s="143"/>
       <c r="M55" s="143"/>
     </row>
-    <row r="56" spans="2:13">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B56" s="149"/>
       <c r="C56" s="143"/>
       <c r="D56" s="143"/>
@@ -5279,7 +5166,7 @@
       <c r="L56" s="143"/>
       <c r="M56" s="143"/>
     </row>
-    <row r="57" spans="2:13">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B57" s="149"/>
       <c r="C57" s="143"/>
       <c r="D57" s="143"/>
@@ -5293,7 +5180,7 @@
       <c r="L57" s="143"/>
       <c r="M57" s="143"/>
     </row>
-    <row r="58" spans="2:13">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B58" s="149"/>
       <c r="C58" s="143"/>
       <c r="D58" s="143"/>
@@ -5307,7 +5194,7 @@
       <c r="L58" s="143"/>
       <c r="M58" s="143"/>
     </row>
-    <row r="59" spans="2:13">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B59" s="149"/>
       <c r="C59" s="143"/>
       <c r="D59" s="143"/>
@@ -5321,7 +5208,7 @@
       <c r="L59" s="143"/>
       <c r="M59" s="143"/>
     </row>
-    <row r="60" spans="2:13">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B60" s="149"/>
       <c r="C60" s="143"/>
       <c r="D60" s="143"/>
@@ -5335,7 +5222,7 @@
       <c r="L60" s="143"/>
       <c r="M60" s="143"/>
     </row>
-    <row r="61" spans="2:13">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B61" s="149"/>
       <c r="C61" s="143"/>
       <c r="D61" s="143"/>
@@ -5349,7 +5236,7 @@
       <c r="L61" s="143"/>
       <c r="M61" s="143"/>
     </row>
-    <row r="62" spans="2:13">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B62" s="149"/>
       <c r="C62" s="143"/>
       <c r="D62" s="143"/>
@@ -5363,7 +5250,7 @@
       <c r="L62" s="143"/>
       <c r="M62" s="143"/>
     </row>
-    <row r="63" spans="2:13">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B63" s="149"/>
       <c r="C63" s="143"/>
       <c r="D63" s="143"/>
@@ -5377,7 +5264,7 @@
       <c r="L63" s="143"/>
       <c r="M63" s="143"/>
     </row>
-    <row r="64" spans="2:13">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B64" s="149"/>
       <c r="C64" s="143"/>
       <c r="D64" s="143"/>
@@ -5391,7 +5278,7 @@
       <c r="L64" s="143"/>
       <c r="M64" s="143"/>
     </row>
-    <row r="65" spans="2:13">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B65" s="149"/>
       <c r="C65" s="143"/>
       <c r="D65" s="143"/>
@@ -5405,7 +5292,7 @@
       <c r="L65" s="143"/>
       <c r="M65" s="143"/>
     </row>
-    <row r="66" spans="2:13">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B66" s="149"/>
       <c r="C66" s="143"/>
       <c r="D66" s="143"/>
@@ -5419,7 +5306,7 @@
       <c r="L66" s="143"/>
       <c r="M66" s="143"/>
     </row>
-    <row r="67" spans="2:13">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B67" s="149"/>
       <c r="C67" s="143"/>
       <c r="D67" s="143"/>
@@ -5433,7 +5320,7 @@
       <c r="L67" s="143"/>
       <c r="M67" s="143"/>
     </row>
-    <row r="68" spans="2:13">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B68" s="149"/>
       <c r="C68" s="143"/>
       <c r="D68" s="143"/>
@@ -5447,7 +5334,7 @@
       <c r="L68" s="143"/>
       <c r="M68" s="143"/>
     </row>
-    <row r="69" spans="2:13">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B69" s="149"/>
       <c r="C69" s="143"/>
       <c r="D69" s="143"/>
@@ -5461,7 +5348,7 @@
       <c r="L69" s="143"/>
       <c r="M69" s="143"/>
     </row>
-    <row r="70" spans="2:13">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B70" s="149"/>
       <c r="C70" s="143"/>
       <c r="D70" s="143"/>
@@ -5475,7 +5362,7 @@
       <c r="L70" s="143"/>
       <c r="M70" s="143"/>
     </row>
-    <row r="71" spans="2:13">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B71" s="149"/>
       <c r="C71" s="143"/>
       <c r="D71" s="143"/>
@@ -5489,7 +5376,7 @@
       <c r="L71" s="143"/>
       <c r="M71" s="143"/>
     </row>
-    <row r="72" spans="2:13">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B72" s="149"/>
       <c r="C72" s="143"/>
       <c r="D72" s="143"/>
@@ -5503,7 +5390,7 @@
       <c r="L72" s="143"/>
       <c r="M72" s="143"/>
     </row>
-    <row r="73" spans="2:13">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B73" s="149"/>
       <c r="C73" s="143"/>
       <c r="D73" s="143"/>
@@ -5517,7 +5404,7 @@
       <c r="L73" s="143"/>
       <c r="M73" s="143"/>
     </row>
-    <row r="74" spans="2:13">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B74" s="149"/>
       <c r="C74" s="143"/>
       <c r="D74" s="143"/>
@@ -5531,11 +5418,11 @@
       <c r="L74" s="143"/>
       <c r="M74" s="143"/>
     </row>
-    <row r="75" spans="2:13">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B75" s="149"/>
       <c r="C75" s="143"/>
       <c r="D75" s="144" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E75" s="143"/>
       <c r="F75" s="143"/>
@@ -5547,14 +5434,14 @@
       <c r="L75" s="143"/>
       <c r="M75" s="143"/>
     </row>
-    <row r="76" spans="2:13">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B76" s="149"/>
       <c r="C76" s="143"/>
       <c r="D76" s="144" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E76" s="144" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F76" s="143"/>
       <c r="G76" s="143"/>
@@ -5565,16 +5452,16 @@
       <c r="L76" s="143"/>
       <c r="M76" s="143"/>
     </row>
-    <row r="77" spans="2:13">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B77" s="149"/>
       <c r="C77" s="144" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D77" s="143">
         <v>4500</v>
       </c>
       <c r="E77" s="144" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F77" s="143"/>
       <c r="G77" s="143"/>
@@ -5585,14 +5472,14 @@
       <c r="L77" s="143"/>
       <c r="M77" s="143"/>
     </row>
-    <row r="78" spans="2:13">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B78" s="149"/>
       <c r="C78" s="143"/>
       <c r="D78" s="143">
         <v>3341</v>
       </c>
       <c r="E78" s="144" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F78" s="143"/>
       <c r="G78" s="143"/>
@@ -5603,7 +5490,7 @@
       <c r="L78" s="143"/>
       <c r="M78" s="143"/>
     </row>
-    <row r="79" spans="2:13">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="149"/>
       <c r="C79" s="143"/>
       <c r="D79" s="143"/>
@@ -5617,7 +5504,7 @@
       <c r="L79" s="143"/>
       <c r="M79" s="143"/>
     </row>
-    <row r="80" spans="2:13">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B80" s="149"/>
       <c r="C80" s="143"/>
       <c r="D80" s="143"/>
@@ -5631,7 +5518,7 @@
       <c r="L80" s="143"/>
       <c r="M80" s="143"/>
     </row>
-    <row r="81" spans="2:13">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B81" s="149"/>
       <c r="C81" s="143"/>
       <c r="D81" s="143"/>
@@ -5645,7 +5532,7 @@
       <c r="L81" s="143"/>
       <c r="M81" s="143"/>
     </row>
-    <row r="82" spans="2:13">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B82" s="149"/>
       <c r="C82" s="143"/>
       <c r="D82" s="143"/>
@@ -5659,7 +5546,7 @@
       <c r="L82" s="143"/>
       <c r="M82" s="143"/>
     </row>
-    <row r="83" spans="2:13">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B83" s="149"/>
       <c r="C83" s="143"/>
       <c r="D83" s="143"/>
@@ -5673,14 +5560,14 @@
       <c r="L83" s="143"/>
       <c r="M83" s="143"/>
     </row>
-    <row r="84" spans="2:13">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B84" s="149"/>
       <c r="C84" s="143"/>
       <c r="D84" s="143">
         <v>50</v>
       </c>
       <c r="E84" s="144" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F84" s="143"/>
       <c r="G84" s="143"/>
@@ -5691,7 +5578,7 @@
       <c r="L84" s="143"/>
       <c r="M84" s="143"/>
     </row>
-    <row r="85" spans="2:13">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B85" s="149"/>
       <c r="C85" s="143"/>
       <c r="D85" s="143"/>
@@ -5705,7 +5592,7 @@
       <c r="L85" s="143"/>
       <c r="M85" s="143"/>
     </row>
-    <row r="86" spans="2:13">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B86" s="149"/>
       <c r="C86" s="143"/>
       <c r="D86" s="151">
@@ -5721,7 +5608,7 @@
       <c r="L86" s="143"/>
       <c r="M86" s="143"/>
     </row>
-    <row r="87" spans="2:13">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B87" s="149"/>
       <c r="C87" s="143"/>
       <c r="D87" s="143"/>
@@ -5735,7 +5622,7 @@
       <c r="L87" s="143"/>
       <c r="M87" s="143"/>
     </row>
-    <row r="88" spans="2:13">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B88" s="149"/>
       <c r="C88" s="143"/>
       <c r="D88" s="143"/>
@@ -5749,7 +5636,7 @@
       <c r="L88" s="143"/>
       <c r="M88" s="143"/>
     </row>
-    <row r="89" spans="2:13">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B89" s="149"/>
       <c r="C89" s="143"/>
       <c r="D89" s="143"/>
@@ -5763,10 +5650,10 @@
       <c r="L89" s="143"/>
       <c r="M89" s="143"/>
     </row>
-    <row r="90" spans="2:13">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B90" s="149"/>
       <c r="C90" s="144" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D90" s="143"/>
       <c r="E90" s="143"/>
@@ -5779,10 +5666,10 @@
       <c r="L90" s="143"/>
       <c r="M90" s="143"/>
     </row>
-    <row r="91" spans="2:13">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B91" s="149"/>
       <c r="C91" s="144" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D91" s="143"/>
       <c r="E91" s="143"/>
@@ -5795,7 +5682,7 @@
       <c r="L91" s="143"/>
       <c r="M91" s="143"/>
     </row>
-    <row r="92" spans="2:13">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B92" s="149"/>
       <c r="C92" s="143"/>
       <c r="D92" s="143"/>
@@ -5809,7 +5696,7 @@
       <c r="L92" s="143"/>
       <c r="M92" s="143"/>
     </row>
-    <row r="93" spans="2:13">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B93" s="149"/>
       <c r="C93" s="143"/>
       <c r="D93" s="143"/>
@@ -5823,7 +5710,7 @@
       <c r="L93" s="143"/>
       <c r="M93" s="143"/>
     </row>
-    <row r="94" spans="2:13">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B94" s="149"/>
       <c r="C94" s="143"/>
       <c r="D94" s="143"/>
@@ -5837,7 +5724,7 @@
       <c r="L94" s="143"/>
       <c r="M94" s="143"/>
     </row>
-    <row r="95" spans="2:13">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B95" s="149"/>
       <c r="C95" s="143"/>
       <c r="D95" s="143"/>
@@ -5851,7 +5738,7 @@
       <c r="L95" s="143"/>
       <c r="M95" s="143"/>
     </row>
-    <row r="96" spans="2:13">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B96" s="149"/>
       <c r="C96" s="143"/>
       <c r="D96" s="143"/>
@@ -5865,7 +5752,7 @@
       <c r="L96" s="143"/>
       <c r="M96" s="143"/>
     </row>
-    <row r="97" spans="2:13">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B97" s="149"/>
       <c r="C97" s="143"/>
       <c r="D97" s="143"/>
@@ -5879,16 +5766,16 @@
       <c r="L97" s="143"/>
       <c r="M97" s="143"/>
     </row>
-    <row r="98" spans="2:13">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B98" s="149"/>
       <c r="C98" s="144" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D98" s="152">
         <v>18</v>
       </c>
       <c r="E98" s="144" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F98" s="143"/>
       <c r="G98" s="143"/>
@@ -5899,7 +5786,7 @@
       <c r="L98" s="143"/>
       <c r="M98" s="143"/>
     </row>
-    <row r="99" spans="2:13">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B99" s="149"/>
       <c r="C99" s="143"/>
       <c r="D99" s="143"/>
@@ -5913,7 +5800,7 @@
       <c r="L99" s="143"/>
       <c r="M99" s="143"/>
     </row>
-    <row r="100" spans="2:13">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B100" s="149"/>
       <c r="C100" s="143"/>
       <c r="D100" s="143"/>
@@ -5927,7 +5814,7 @@
       <c r="L100" s="143"/>
       <c r="M100" s="143"/>
     </row>
-    <row r="101" spans="2:13">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B101" s="149"/>
       <c r="C101" s="143"/>
       <c r="D101" s="143"/>
@@ -5941,7 +5828,7 @@
       <c r="L101" s="143"/>
       <c r="M101" s="143"/>
     </row>
-    <row r="102" spans="2:13">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B102" s="149"/>
       <c r="C102" s="143"/>
       <c r="D102" s="143"/>
@@ -5955,7 +5842,7 @@
       <c r="L102" s="143"/>
       <c r="M102" s="143"/>
     </row>
-    <row r="103" spans="2:13">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B103" s="149"/>
       <c r="C103" s="143"/>
       <c r="D103" s="143"/>
@@ -5969,7 +5856,7 @@
       <c r="L103" s="143"/>
       <c r="M103" s="143"/>
     </row>
-    <row r="104" spans="2:13">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B104" s="149"/>
       <c r="C104" s="143"/>
       <c r="D104" s="143"/>
@@ -5983,7 +5870,7 @@
       <c r="L104" s="143"/>
       <c r="M104" s="143"/>
     </row>
-    <row r="105" spans="2:13">
+    <row r="105" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B105" s="149"/>
       <c r="C105" s="143"/>
       <c r="D105" s="143"/>
@@ -5997,7 +5884,7 @@
       <c r="L105" s="143"/>
       <c r="M105" s="143"/>
     </row>
-    <row r="106" spans="2:13">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B106" s="149"/>
       <c r="C106" s="143"/>
       <c r="D106" s="143"/>
@@ -6011,10 +5898,10 @@
       <c r="L106" s="143"/>
       <c r="M106" s="143"/>
     </row>
-    <row r="107" spans="2:13">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B107" s="149"/>
       <c r="C107" s="144" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D107" s="143"/>
       <c r="E107" s="143"/>
@@ -6027,16 +5914,16 @@
       <c r="L107" s="143"/>
       <c r="M107" s="143"/>
     </row>
-    <row r="108" spans="2:13">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B108" s="149"/>
       <c r="C108" s="144" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D108" s="143">
         <v>4500</v>
       </c>
       <c r="E108" s="144" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F108" s="143"/>
       <c r="G108" s="143"/>
@@ -6047,14 +5934,14 @@
       <c r="L108" s="143"/>
       <c r="M108" s="143"/>
     </row>
-    <row r="109" spans="2:13">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B109" s="149"/>
       <c r="C109" s="143"/>
       <c r="D109" s="143">
         <v>3387</v>
       </c>
       <c r="E109" s="144" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F109" s="143"/>
       <c r="G109" s="143"/>
@@ -6065,7 +5952,7 @@
       <c r="L109" s="143"/>
       <c r="M109" s="143"/>
     </row>
-    <row r="110" spans="2:13">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B110" s="149"/>
       <c r="C110" s="144"/>
       <c r="D110" s="143"/>
@@ -6079,16 +5966,16 @@
       <c r="L110" s="143"/>
       <c r="M110" s="143"/>
     </row>
-    <row r="111" spans="2:13">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B111" s="149"/>
       <c r="C111" s="144" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D111" s="143">
         <v>65</v>
       </c>
       <c r="E111" s="144" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F111" s="143"/>
       <c r="G111" s="143"/>
@@ -6099,14 +5986,14 @@
       <c r="L111" s="143"/>
       <c r="M111" s="143"/>
     </row>
-    <row r="112" spans="2:13">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B112" s="149"/>
       <c r="C112" s="143"/>
       <c r="D112" s="143">
         <v>45.29</v>
       </c>
       <c r="E112" s="144" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F112" s="143"/>
       <c r="G112" s="143"/>
@@ -6117,7 +6004,7 @@
       <c r="L112" s="143"/>
       <c r="M112" s="143"/>
     </row>
-    <row r="113" spans="2:13">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B113" s="149"/>
       <c r="C113" s="143"/>
       <c r="D113" s="143"/>
@@ -6131,7 +6018,7 @@
       <c r="L113" s="143"/>
       <c r="M113" s="143"/>
     </row>
-    <row r="114" spans="2:13">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B114" s="149"/>
       <c r="C114" s="143"/>
       <c r="D114" s="143"/>
@@ -6145,7 +6032,7 @@
       <c r="L114" s="143"/>
       <c r="M114" s="143"/>
     </row>
-    <row r="115" spans="2:13">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B115" s="149"/>
       <c r="C115" s="143"/>
       <c r="D115" s="143"/>
@@ -6159,7 +6046,7 @@
       <c r="L115" s="143"/>
       <c r="M115" s="143"/>
     </row>
-    <row r="116" spans="2:13">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B116" s="149"/>
       <c r="C116" s="143"/>
       <c r="D116" s="143"/>
@@ -6173,7 +6060,7 @@
       <c r="L116" s="143"/>
       <c r="M116" s="143"/>
     </row>
-    <row r="117" spans="2:13">
+    <row r="117" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B117" s="149"/>
       <c r="C117" s="143"/>
       <c r="D117" s="143"/>
@@ -6187,7 +6074,7 @@
       <c r="L117" s="143"/>
       <c r="M117" s="143"/>
     </row>
-    <row r="118" spans="2:13">
+    <row r="118" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B118" s="149"/>
       <c r="C118" s="143"/>
       <c r="D118" s="143"/>
@@ -6201,7 +6088,7 @@
       <c r="L118" s="143"/>
       <c r="M118" s="143"/>
     </row>
-    <row r="119" spans="2:13">
+    <row r="119" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B119" s="149"/>
       <c r="C119" s="143"/>
       <c r="D119" s="143"/>
@@ -6215,7 +6102,7 @@
       <c r="L119" s="143"/>
       <c r="M119" s="143"/>
     </row>
-    <row r="120" spans="2:13">
+    <row r="120" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B120" s="149"/>
       <c r="C120" s="143"/>
       <c r="D120" s="143"/>
@@ -6229,7 +6116,7 @@
       <c r="L120" s="143"/>
       <c r="M120" s="143"/>
     </row>
-    <row r="121" spans="2:13">
+    <row r="121" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B121" s="149"/>
       <c r="C121" s="143"/>
       <c r="D121" s="143"/>
@@ -6243,7 +6130,7 @@
       <c r="L121" s="143"/>
       <c r="M121" s="143"/>
     </row>
-    <row r="122" spans="2:13">
+    <row r="122" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B122" s="149"/>
       <c r="C122" s="143"/>
       <c r="D122" s="143"/>
@@ -6257,7 +6144,7 @@
       <c r="L122" s="143"/>
       <c r="M122" s="143"/>
     </row>
-    <row r="123" spans="2:13">
+    <row r="123" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B123" s="149"/>
       <c r="C123" s="143"/>
       <c r="D123" s="143"/>
@@ -6271,7 +6158,7 @@
       <c r="L123" s="143"/>
       <c r="M123" s="143"/>
     </row>
-    <row r="124" spans="2:13">
+    <row r="124" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B124" s="149"/>
       <c r="C124" s="143"/>
       <c r="D124" s="143"/>
@@ -6285,7 +6172,7 @@
       <c r="L124" s="143"/>
       <c r="M124" s="143"/>
     </row>
-    <row r="125" spans="2:13">
+    <row r="125" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B125" s="149"/>
       <c r="C125" s="143"/>
       <c r="D125" s="143"/>
@@ -6299,7 +6186,7 @@
       <c r="L125" s="143"/>
       <c r="M125" s="143"/>
     </row>
-    <row r="126" spans="2:13">
+    <row r="126" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B126" s="149"/>
       <c r="C126" s="143"/>
       <c r="D126" s="143"/>
@@ -6317,10 +6204,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy_power_hydro_river.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_hydro_river.central_producer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4EE276-D1EA-4E4F-AA4F-E5FBFC95C6F9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB8E027-771D-204A-9A3D-FB6F8A8EA947}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -50,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="140">
   <si>
     <t>Source</t>
   </si>
@@ -716,6 +722,9 @@
   <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1499,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1764,6 +1773,7 @@
     <xf numFmtId="0" fontId="26" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="249">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2696,12 +2706,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="29" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="21"/>
+    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="27" customFormat="1">
@@ -2876,22 +2886,22 @@
   <dimension ref="B1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD24"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="46.83203125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="35" customWidth="1"/>
-    <col min="7" max="7" width="43.33203125" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="35"/>
+    <col min="1" max="1" width="3.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="43.28515625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -3357,15 +3367,15 @@
         <v>2</v>
       </c>
       <c r="E29" s="41">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="39" t="s">
         <v>24</v>
       </c>
       <c r="H29" s="39"/>
-      <c r="I29" s="34" t="s">
-        <v>58</v>
+      <c r="I29" s="163" t="s">
+        <v>139</v>
       </c>
       <c r="J29" s="105"/>
     </row>
@@ -3527,25 +3537,25 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="47" customWidth="1"/>
-    <col min="2" max="2" width="2.5" style="47" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="47" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="47" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="47" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="47" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="47" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" style="47" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="47" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="47" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="47" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="47" customWidth="1"/>
     <col min="7" max="7" width="3" style="47" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="47" customWidth="1"/>
-    <col min="9" max="9" width="2.5" style="47" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="47" customWidth="1"/>
-    <col min="11" max="11" width="2.1640625" style="47" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="47" customWidth="1"/>
-    <col min="13" max="13" width="2.5" style="47" customWidth="1"/>
-    <col min="14" max="14" width="9.5" style="47" customWidth="1"/>
-    <col min="15" max="15" width="1.83203125" style="47" customWidth="1"/>
-    <col min="16" max="16" width="55.1640625" style="47" customWidth="1"/>
-    <col min="17" max="16384" width="10.6640625" style="47"/>
+    <col min="8" max="8" width="9.42578125" style="47" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="47" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="47" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" style="47" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="47" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" style="47" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="47" customWidth="1"/>
+    <col min="15" max="15" width="1.85546875" style="47" customWidth="1"/>
+    <col min="16" max="16" width="55.140625" style="47" customWidth="1"/>
+    <col min="17" max="16384" width="10.7109375" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="17" thickBot="1"/>
@@ -3953,18 +3963,18 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="72" customWidth="1"/>
-    <col min="2" max="2" width="2.5" style="72" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="72" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="72" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="72" customWidth="1"/>
-    <col min="6" max="7" width="13.33203125" style="72" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="73" customWidth="1"/>
-    <col min="9" max="9" width="33.6640625" style="73" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="72" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" style="72" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="72" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="72" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="72" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" style="72" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="73" customWidth="1"/>
+    <col min="9" max="9" width="33.7109375" style="73" customWidth="1"/>
     <col min="10" max="10" width="71" style="72" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="72"/>
+    <col min="11" max="16384" width="33.140625" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1"/>
@@ -4249,12 +4259,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="139" customWidth="1"/>
-    <col min="2" max="2" width="3.83203125" style="139" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="139" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="139"/>
+    <col min="1" max="1" width="4.85546875" style="139" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" style="139" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="139" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="139"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="17" thickBot="1"/>
